--- a/TaskPlanning.xlsx
+++ b/TaskPlanning.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="115">
   <si>
     <t>Task</t>
   </si>
@@ -215,6 +215,165 @@
   </si>
   <si>
     <t>6.7</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>user and password</t>
+  </si>
+  <si>
+    <t>password hidding</t>
+  </si>
+  <si>
+    <t>authentification confirmation</t>
+  </si>
+  <si>
+    <t>register page data fields</t>
+  </si>
+  <si>
+    <t>password protection</t>
+  </si>
+  <si>
+    <t>data validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">register redirect to log in </t>
+  </si>
+  <si>
+    <t>log in redirect to home</t>
+  </si>
+  <si>
+    <t>log out process</t>
+  </si>
+  <si>
+    <t>email address field</t>
+  </si>
+  <si>
+    <t>email validation</t>
+  </si>
+  <si>
+    <t>password reset</t>
+  </si>
+  <si>
+    <t>departments name list</t>
+  </si>
+  <si>
+    <t>add department</t>
+  </si>
+  <si>
+    <t>modify department</t>
+  </si>
+  <si>
+    <t>delete department</t>
+  </si>
+  <si>
+    <t>departments graphical representation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relations between departments </t>
+  </si>
+  <si>
+    <t>add department personnel information</t>
+  </si>
+  <si>
+    <t>add department personnel relations</t>
+  </si>
+  <si>
+    <t>view department personnel information</t>
+  </si>
+  <si>
+    <t>view department personnel relations</t>
+  </si>
+  <si>
+    <t>store chart</t>
+  </si>
+  <si>
+    <t>audience schedule planning</t>
+  </si>
+  <si>
+    <t>multiple user chat</t>
+  </si>
+  <si>
+    <t>mayor audience report</t>
+  </si>
+  <si>
+    <t>audience request</t>
+  </si>
+  <si>
+    <t>audience request response</t>
+  </si>
+  <si>
+    <t>chat initiation procedure</t>
+  </si>
+  <si>
+    <t>documents storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> documents categories</t>
+  </si>
+  <si>
+    <t>database documents search</t>
+  </si>
+  <si>
+    <t>search criteria</t>
+  </si>
+  <si>
+    <t>scanning documents facility</t>
+  </si>
+  <si>
+    <t>printing documents facility</t>
+  </si>
+  <si>
+    <t>document modify stamp</t>
+  </si>
+  <si>
+    <t>client intuitive interface</t>
+  </si>
+  <si>
+    <t>client user-friendly interface</t>
+  </si>
+  <si>
+    <t>admin intutive interface</t>
+  </si>
+  <si>
+    <t>admin user-friendly interface</t>
+  </si>
+  <si>
+    <t>text icons</t>
+  </si>
+  <si>
+    <t>drop-down list</t>
+  </si>
+  <si>
+    <t>define fonts types</t>
+  </si>
+  <si>
+    <t>define font sizes</t>
+  </si>
+  <si>
+    <t>user name display</t>
+  </si>
+  <si>
+    <t>database store data</t>
+  </si>
+  <si>
+    <t>database modify data</t>
+  </si>
+  <si>
+    <t>database delete data</t>
+  </si>
+  <si>
+    <t>database retrieve data</t>
+  </si>
+  <si>
+    <t>database modify structure</t>
+  </si>
+  <si>
+    <t>user rights administration</t>
+  </si>
+  <si>
+    <t>data modification log</t>
   </si>
 </sst>
 </file>
@@ -255,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -356,11 +515,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -377,6 +547,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -399,7 +575,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -714,121 +890,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
+      <c r="B3" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
+      <c r="B4" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
+      <c r="B5" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
+      <c r="B6" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
+      <c r="B7" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -836,16 +1031,19 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
+      <c r="B8" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -853,16 +1051,19 @@
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
+      <c r="B9" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -870,16 +1071,19 @@
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
+      <c r="B10" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -887,203 +1091,239 @@
       <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
+      <c r="B11" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
+      <c r="B12" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
+      <c r="B13" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
+      <c r="B14" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3">
-        <v>0</v>
+      <c r="B15" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="3">
-        <v>0</v>
+      <c r="B16" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
+      <c r="B17" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3">
-        <v>0</v>
+      <c r="B18" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="3">
-        <v>0</v>
+      <c r="B19" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="3">
-        <v>0</v>
+      <c r="B20" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="3">
-        <v>0</v>
+      <c r="B21" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="3">
-        <v>0</v>
+      <c r="B22" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
@@ -1091,16 +1331,19 @@
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="3">
-        <v>0</v>
+      <c r="B23" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
@@ -1108,16 +1351,19 @@
       <c r="D23" s="3">
         <v>0</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="3">
-        <v>0</v>
+      <c r="B24" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -1125,16 +1371,19 @@
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="3">
-        <v>0</v>
+      <c r="B25" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
@@ -1142,84 +1391,99 @@
       <c r="D25" s="3">
         <v>0</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="3">
-        <v>0</v>
+      <c r="B26" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="C26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="3">
-        <v>0</v>
+      <c r="B27" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="C27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="3">
-        <v>0</v>
+      <c r="B28" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="3">
-        <v>0</v>
+      <c r="B29" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="3">
-        <v>0</v>
+      <c r="B30" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -1227,16 +1491,19 @@
       <c r="D30" s="3">
         <v>0</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="3">
-        <v>0</v>
+      <c r="B31" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -1244,101 +1511,119 @@
       <c r="D31" s="3">
         <v>0</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="3">
-        <v>0</v>
+      <c r="B32" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="3">
-        <v>0</v>
+      <c r="B33" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="C33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="3">
-        <v>0</v>
+      <c r="B34" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="C34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="3">
-        <v>0</v>
+      <c r="B35" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="3">
-        <v>0</v>
+      <c r="B36" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="3">
-        <v>0</v>
+      <c r="B37" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -1346,16 +1631,19 @@
       <c r="D37" s="3">
         <v>0</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="3">
-        <v>0</v>
+      <c r="B38" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
@@ -1363,118 +1651,139 @@
       <c r="D38" s="3">
         <v>0</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="3">
-        <v>0</v>
+      <c r="B39" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="3">
-        <v>0</v>
+      <c r="B40" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="3">
-        <v>0</v>
+      <c r="B41" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="C41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="3">
-        <v>0</v>
+      <c r="B42" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="3">
-        <v>0</v>
+      <c r="B43" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="3">
-        <v>0</v>
+      <c r="B44" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="3">
-        <v>0</v>
+      <c r="B45" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
@@ -1482,16 +1791,19 @@
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="3">
-        <v>0</v>
+      <c r="B46" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
@@ -1499,16 +1811,19 @@
       <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="3">
-        <v>0</v>
+      <c r="B47" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -1516,84 +1831,99 @@
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="3">
-        <v>0</v>
+      <c r="B48" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="C48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="3">
-        <v>0</v>
+      <c r="B49" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="C49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="3">
-        <v>0</v>
+      <c r="B50" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="C50" s="3">
         <v>0</v>
       </c>
       <c r="D50" s="3">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="3">
-        <v>0</v>
+      <c r="B51" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="C51" s="3">
         <v>0</v>
       </c>
       <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="3">
-        <v>0</v>
+      <c r="B52" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="C52" s="3">
         <v>0</v>
@@ -1601,16 +1931,19 @@
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="3">
-        <v>0</v>
+      <c r="B53" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="C53" s="3">
         <v>0</v>
@@ -1618,16 +1951,19 @@
       <c r="D53" s="3">
         <v>0</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="3">
-        <v>0</v>
+      <c r="B54" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C54" s="3">
         <v>0</v>
@@ -1635,46 +1971,50 @@
       <c r="D54" s="3">
         <v>0</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="6">
-        <f>SUM(B3:B5)</f>
-        <v>0</v>
-      </c>
+      <c r="B55" s="5"/>
       <c r="C55" s="6">
         <f>SUM(C3:C54)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D55" s="6">
         <f>SUM(D3:D54)</f>
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="E55" s="6">
+        <f>SUM(E3:E54)</f>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E54">
+  <conditionalFormatting sqref="F3:F54">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",E3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",F3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In progress">
-      <formula>NOT(ISERROR(SEARCH("In progress",E3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In progress",F3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Not started">
-      <formula>NOT(ISERROR(SEARCH("Not started",E3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not started",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F54">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
